--- a/Result/ARIMA/Service/CHN.xlsx
+++ b/Result/ARIMA/Service/CHN.xlsx
@@ -463,7 +463,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>22.30837564817022</v>
+        <v>0.8357025263597702</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -473,7 +473,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>22.71406745641086</v>
+        <v>23.14408487011977</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -483,7 +483,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>22.59369102710226</v>
+        <v>23.42385692451</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -493,7 +493,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>23.2032539894927</v>
+        <v>23.16351791782924</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -503,7 +503,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>25.52931556625333</v>
+        <v>24.05179562076233</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -513,7 +513,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>29.35332018542419</v>
+        <v>26.8428576329407</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -523,7 +523,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>29.84707434646617</v>
+        <v>31.0010005674101</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -533,7 +533,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>30.36075740362833</v>
+        <v>30.30955005455831</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -543,7 +543,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>31.23777118769934</v>
+        <v>31.21302249326409</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -553,7 +553,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>32.8924312398331</v>
+        <v>32.0814784608404</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -563,7 +563,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>32.38277311021145</v>
+        <v>33.99042928804606</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -573,7 +573,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>34.478536877422</v>
+        <v>32.69849342853592</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>35.55580571533227</v>
+        <v>35.88997875391681</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -593,7 +593,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>34.51599613052345</v>
+        <v>36.28342292040944</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -603,7 +603,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>34.36265612039433</v>
+        <v>34.78004005379024</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -613,7 +613,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>33.65293801156184</v>
+        <v>35.06335949562434</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -623,7 +623,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>33.57027126834449</v>
+        <v>34.03245215152534</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -633,7 +633,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>35.00567727061917</v>
+        <v>34.25648546536162</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -643,7 +643,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>37.04332902280985</v>
+        <v>36.08369927708025</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -653,7 +653,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>38.57534808943312</v>
+        <v>38.1894153246502</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -663,7 +663,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>39.78765516702887</v>
+        <v>39.53587716389443</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -673,7 +673,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>41.22312630868009</v>
+        <v>40.70479306733739</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -683,7 +683,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>42.24794475438896</v>
+        <v>42.2264791492584</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -693,7 +693,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>42.0282161856089</v>
+        <v>43.09059014136039</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -703,7 +703,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>41.18314016648829</v>
+        <v>42.52030322815758</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -713,7 +713,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>41.33592591678994</v>
+        <v>41.58634909689503</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -723,7 +723,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>41.81684190683736</v>
+        <v>42.09063127475767</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -733,7 +733,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>42.86966500939599</v>
+        <v>42.56398967749087</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -743,7 +743,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>42.85977979077759</v>
+        <v>43.80423552521752</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -753,7 +753,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>44.40666719932563</v>
+        <v>43.39000644174453</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -763,7 +763,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>44.17699192151338</v>
+        <v>45.5711996788264</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -773,7 +773,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>44.29305673463117</v>
+        <v>44.56175024835782</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -783,7 +783,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>45.46330538759899</v>
+        <v>45.0418527143684</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -793,7 +793,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>46.88040150152828</v>
+        <v>46.43532306309395</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -803,7 +803,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>48.27094049434601</v>
+        <v>47.86006072235381</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -813,7 +813,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>50.77164514848277</v>
+        <v>49.23953845820868</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -823,7 +823,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>52.3620909629531</v>
+        <v>52.10289406769093</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -985,7 +985,7 @@
         <v>1980</v>
       </c>
       <c r="B2" t="n">
-        <v>22.30837564817022</v>
+        <v>0.7411965448473047</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -995,7 +995,7 @@
         <v>1981</v>
       </c>
       <c r="B3" t="n">
-        <v>22.71406745641086</v>
+        <v>23.04957931837449</v>
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
@@ -1005,7 +1005,7 @@
         <v>1982</v>
       </c>
       <c r="B4" t="n">
-        <v>22.59369102710226</v>
+        <v>23.35004332539101</v>
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
@@ -1015,7 +1015,7 @@
         <v>1983</v>
       </c>
       <c r="B5" t="n">
-        <v>23.2032539894927</v>
+        <v>23.07181194357821</v>
       </c>
       <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
@@ -1025,7 +1025,7 @@
         <v>1984</v>
       </c>
       <c r="B6" t="n">
-        <v>25.52931556625333</v>
+        <v>23.99071944962106</v>
       </c>
       <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
@@ -1035,7 +1035,7 @@
         <v>1985</v>
       </c>
       <c r="B7" t="n">
-        <v>29.35332018542419</v>
+        <v>26.81291304248416</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>1986</v>
       </c>
       <c r="B8" t="n">
-        <v>29.84707434646617</v>
+        <v>30.9902499966103</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -1055,7 +1055,7 @@
         <v>1987</v>
       </c>
       <c r="B9" t="n">
-        <v>30.36075740362833</v>
+        <v>30.18518440628916</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
@@ -1065,7 +1065,7 @@
         <v>1988</v>
       </c>
       <c r="B10" t="n">
-        <v>31.23777118769934</v>
+        <v>31.16386158514654</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
@@ -1075,7 +1075,7 @@
         <v>1989</v>
       </c>
       <c r="B11" t="n">
-        <v>32.8924312398331</v>
+        <v>32.00502851923844</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
@@ -1085,7 +1085,7 @@
         <v>1990</v>
       </c>
       <c r="B12" t="n">
-        <v>32.38277311021145</v>
+        <v>33.94652912936117</v>
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
@@ -1095,7 +1095,7 @@
         <v>1991</v>
       </c>
       <c r="B13" t="n">
-        <v>34.478536877422</v>
+        <v>32.57258373697188</v>
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
@@ -1105,7 +1105,7 @@
         <v>1992</v>
       </c>
       <c r="B14" t="n">
-        <v>35.55580571533227</v>
+        <v>35.89177925935601</v>
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
@@ -1115,7 +1115,7 @@
         <v>1993</v>
       </c>
       <c r="B15" t="n">
-        <v>34.51599613052345</v>
+        <v>36.17853679696357</v>
       </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
@@ -1125,7 +1125,7 @@
         <v>1994</v>
       </c>
       <c r="B16" t="n">
-        <v>34.36265612039433</v>
+        <v>34.67097493986532</v>
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
@@ -1135,7 +1135,7 @@
         <v>1995</v>
       </c>
       <c r="B17" t="n">
-        <v>33.65293801156184</v>
+        <v>34.99513835598432</v>
       </c>
       <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
@@ -1145,7 +1145,7 @@
         <v>1996</v>
       </c>
       <c r="B18" t="n">
-        <v>33.57027126834449</v>
+        <v>33.9208699545947</v>
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
@@ -1155,7 +1155,7 @@
         <v>1997</v>
       </c>
       <c r="B19" t="n">
-        <v>35.00567727061917</v>
+        <v>34.18784547295445</v>
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
@@ -1165,7 +1165,7 @@
         <v>1998</v>
       </c>
       <c r="B20" t="n">
-        <v>37.04332902280985</v>
+        <v>36.03524420792046</v>
       </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
@@ -1175,7 +1175,7 @@
         <v>1999</v>
       </c>
       <c r="B21" t="n">
-        <v>38.57534808943312</v>
+        <v>38.1399798487534</v>
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
@@ -1185,7 +1185,7 @@
         <v>2000</v>
       </c>
       <c r="B22" t="n">
-        <v>39.78765516702887</v>
+        <v>39.47005702006111</v>
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
@@ -1195,7 +1195,7 @@
         <v>2001</v>
       </c>
       <c r="B23" t="n">
-        <v>41.22312630868009</v>
+        <v>40.64083794491979</v>
       </c>
       <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
@@ -1205,7 +1205,7 @@
         <v>2002</v>
       </c>
       <c r="B24" t="n">
-        <v>42.24794475438896</v>
+        <v>42.16963979578669</v>
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
@@ -1215,7 +1215,7 @@
         <v>2003</v>
       </c>
       <c r="B25" t="n">
-        <v>42.0282161856089</v>
+        <v>43.01675190536299</v>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
@@ -1225,7 +1225,7 @@
         <v>2004</v>
       </c>
       <c r="B26" t="n">
-        <v>41.18314016648829</v>
+        <v>42.42085152963928</v>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
@@ -1235,7 +1235,7 @@
         <v>2005</v>
       </c>
       <c r="B27" t="n">
-        <v>41.33592591678994</v>
+        <v>41.48791529490769</v>
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
@@ -1245,7 +1245,7 @@
         <v>2006</v>
       </c>
       <c r="B28" t="n">
-        <v>41.81684190683736</v>
+        <v>42.02353046785343</v>
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
@@ -1255,7 +1255,7 @@
         <v>2007</v>
       </c>
       <c r="B29" t="n">
-        <v>42.86966500939599</v>
+        <v>42.48515933200976</v>
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
@@ -1265,7 +1265,7 @@
         <v>2008</v>
       </c>
       <c r="B30" t="n">
-        <v>42.85977979077759</v>
+        <v>43.74643961981285</v>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
@@ -1275,7 +1275,7 @@
         <v>2009</v>
       </c>
       <c r="B31" t="n">
-        <v>44.40666719932563</v>
+        <v>43.28833693519783</v>
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
@@ -1285,7 +1285,7 @@
         <v>2010</v>
       </c>
       <c r="B32" t="n">
-        <v>44.17699192151338</v>
+        <v>45.54219096167729</v>
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
@@ -1295,7 +1295,7 @@
         <v>2011</v>
       </c>
       <c r="B33" t="n">
-        <v>44.29305673463117</v>
+        <v>44.43681444285851</v>
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
@@ -1305,7 +1305,7 @@
         <v>2012</v>
       </c>
       <c r="B34" t="n">
-        <v>45.46330538759899</v>
+        <v>44.98356380169322</v>
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
@@ -1315,7 +1315,7 @@
         <v>2013</v>
       </c>
       <c r="B35" t="n">
-        <v>46.88040150152828</v>
+        <v>46.37366051713227</v>
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
@@ -1325,7 +1325,7 @@
         <v>2014</v>
       </c>
       <c r="B36" t="n">
-        <v>48.27094049434601</v>
+        <v>47.80027671472777</v>
       </c>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
@@ -1335,7 +1335,7 @@
         <v>2015</v>
       </c>
       <c r="B37" t="n">
-        <v>50.77164514848277</v>
+        <v>49.17809475718612</v>
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
@@ -1345,7 +1345,7 @@
         <v>2016</v>
       </c>
       <c r="B38" t="n">
-        <v>52.3620909629531</v>
+        <v>52.07473321313353</v>
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
@@ -1355,7 +1355,7 @@
         <v>2017</v>
       </c>
       <c r="B39" t="n">
-        <v>52.68473653423992</v>
+        <v>53.20461086955618</v>
       </c>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
@@ -1365,7 +1365,7 @@
         <v>2018</v>
       </c>
       <c r="B40" t="n">
-        <v>53.26996792341521</v>
+        <v>53.24262354462061</v>
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>2019</v>
       </c>
       <c r="B41" t="n">
-        <v>54.26890426636677</v>
+        <v>54.02080619320758</v>
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
@@ -1385,7 +1385,7 @@
         <v>2020</v>
       </c>
       <c r="B42" t="n">
-        <v>54.45856070688963</v>
+        <v>55.09758107173743</v>
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
@@ -1395,7 +1395,7 @@
         <v>2021</v>
       </c>
       <c r="B43" t="n">
-        <v>53.30909789775842</v>
+        <v>54.97443640468325</v>
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
